--- a/IntentoWeb-LocalHost/data.xlsx
+++ b/IntentoWeb-LocalHost/data.xlsx
@@ -5,35 +5,42 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Apps\automatizacion enlaces\OpenMeet-s\IntentoWeb-LocalHost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Apps\automatizacion_enlaces\OpenMeet-s\IntentoWeb-LocalHost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5684BCE6-9E5C-4033-992A-53BE736695EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C63CBD5-782F-4E82-9146-3EB4740D58DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="930" windowWidth="13395" windowHeight="10635" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="75" windowWidth="13395" windowHeight="10635" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ABC" sheetId="2" r:id="rId1"/>
     <sheet name="MSJ-TEST" sheetId="1" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="41">
   <si>
     <t>ALISON</t>
   </si>
   <si>
-    <t>TEST MESSAGE GENERATE WITH AI</t>
-  </si>
-  <si>
     <t>NOMBRE</t>
   </si>
   <si>
@@ -44,16 +51,143 @@
   </si>
   <si>
     <t>INTENTO</t>
+  </si>
+  <si>
+    <t>CONCATENAR</t>
+  </si>
+  <si>
+    <t>Buenas tardes</t>
+  </si>
+  <si>
+    <t>MELQUISEDEC</t>
+  </si>
+  <si>
+    <t>XIOMARA</t>
+  </si>
+  <si>
+    <t>JOSE</t>
+  </si>
+  <si>
+    <t>CARLOS</t>
+  </si>
+  <si>
+    <t>FREDDY</t>
+  </si>
+  <si>
+    <t>VICTORIA</t>
+  </si>
+  <si>
+    <t>GERALDINE</t>
+  </si>
+  <si>
+    <t>ROCIO</t>
+  </si>
+  <si>
+    <t>OSCAR</t>
+  </si>
+  <si>
+    <t>WILSON</t>
+  </si>
+  <si>
+    <t>ZANDRA</t>
+  </si>
+  <si>
+    <t>ANA</t>
+  </si>
+  <si>
+    <t>PEDRO</t>
+  </si>
+  <si>
+    <t>EDU</t>
+  </si>
+  <si>
+    <t>NADJA</t>
+  </si>
+  <si>
+    <t>estimado Coordinador</t>
+  </si>
+  <si>
+    <t>estimada Coordinadora</t>
+  </si>
+  <si>
+    <t>, por favor se le pide el apoyo para distribuir el siguiente enlace con los docentes nuevos, este enlace tiene la finalidad de solicitar los datos para generar sus anexos. Gracias anticipadas por su apoyo.</t>
+  </si>
+  <si>
+    <t>https://forms.gle/d1UqjP9NoRevg5JC6</t>
+  </si>
+  <si>
+    <t>https://forms.gle/d1UqjP9NoRevg5JC7</t>
+  </si>
+  <si>
+    <t>https://forms.gle/d1UqjP9NoRevg5JC8</t>
+  </si>
+  <si>
+    <t>https://forms.gle/d1UqjP9NoRevg5JC9</t>
+  </si>
+  <si>
+    <t>https://forms.gle/d1UqjP9NoRevg5JC10</t>
+  </si>
+  <si>
+    <t>https://forms.gle/d1UqjP9NoRevg5JC11</t>
+  </si>
+  <si>
+    <t>https://forms.gle/d1UqjP9NoRevg5JC12</t>
+  </si>
+  <si>
+    <t>https://forms.gle/d1UqjP9NoRevg5JC13</t>
+  </si>
+  <si>
+    <t>https://forms.gle/d1UqjP9NoRevg5JC14</t>
+  </si>
+  <si>
+    <t>https://forms.gle/d1UqjP9NoRevg5JC15</t>
+  </si>
+  <si>
+    <t>https://forms.gle/d1UqjP9NoRevg5JC16</t>
+  </si>
+  <si>
+    <t>https://forms.gle/d1UqjP9NoRevg5JC17</t>
+  </si>
+  <si>
+    <t>https://forms.gle/d1UqjP9NoRevg5JC18</t>
+  </si>
+  <si>
+    <t>https://forms.gle/d1UqjP9NoRevg5JC19</t>
+  </si>
+  <si>
+    <t>https://forms.gle/d1UqjP9NoRevg5JC20</t>
+  </si>
+  <si>
+    <t>DILSO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Lexend"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -73,7 +207,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -96,15 +230,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -389,17 +575,17 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
       <c r="B4">
         <v>948974522</v>
       </c>
@@ -414,47 +600,471 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:D3"/>
+  <dimension ref="A2:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="136.42578125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="H2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    </row>
+    <row r="3" spans="1:8" s="9" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>948974522</v>
       </c>
-      <c r="C3">
-        <v>47</v>
-      </c>
+      <c r="C3"/>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="7" t="str">
+        <f>CONCATENATE(D3, " ",E3, " ",A3, " ",F3,"   ",'MSJ-TEST'!$G$5)</f>
+        <v>Buenas tardes estimada Coordinadora ALISON , por favor se le pide el apoyo para distribuir el siguiente enlace con los docentes nuevos, este enlace tiene la finalidad de solicitar los datos para generar sus anexos. Gracias anticipadas por su apoyo.   https://forms.gle/d1UqjP9NoRevg5JC6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30.75" thickBot="1">
+      <c r="A4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="2">
+        <v>968964123</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="7" t="str">
+        <f>CONCATENATE(D4, " ",E4, " ",A4, " ",F4,"   ",'MSJ-TEST'!$G$5)</f>
+        <v>Buenas tardes estimada Coordinadora DILSO , por favor se le pide el apoyo para distribuir el siguiente enlace con los docentes nuevos, este enlace tiene la finalidad de solicitar los datos para generar sus anexos. Gracias anticipadas por su apoyo.   https://forms.gle/d1UqjP9NoRevg5JC6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30.75" thickBot="1">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2">
+        <v>992766470</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="7" t="str">
+        <f>CONCATENATE(D5, " ",E5, " ",A5, " ",F5,"   ",$G$5)</f>
+        <v>Buenas tardes estimado Coordinador MELQUISEDEC , por favor se le pide el apoyo para distribuir el siguiente enlace con los docentes nuevos, este enlace tiene la finalidad de solicitar los datos para generar sus anexos. Gracias anticipadas por su apoyo.   https://forms.gle/d1UqjP9NoRevg5JC6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30.75" thickBot="1">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3">
+        <v>991348426</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="7" t="str">
+        <f>CONCATENATE(D6, " ",E6, " ",A6, " ",F6,"   ",$G$5)</f>
+        <v>Buenas tardes estimada Coordinadora XIOMARA , por favor se le pide el apoyo para distribuir el siguiente enlace con los docentes nuevos, este enlace tiene la finalidad de solicitar los datos para generar sus anexos. Gracias anticipadas por su apoyo.   https://forms.gle/d1UqjP9NoRevg5JC6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30.75" thickBot="1">
+      <c r="A7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3">
+        <v>941133818</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="7" t="str">
+        <f>CONCATENATE(D7, " ",E7, " ",A7, " ",F7,"   ",$G$5)</f>
+        <v>Buenas tardes estimado Coordinador JOSE , por favor se le pide el apoyo para distribuir el siguiente enlace con los docentes nuevos, este enlace tiene la finalidad de solicitar los datos para generar sus anexos. Gracias anticipadas por su apoyo.   https://forms.gle/d1UqjP9NoRevg5JC6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30.75" thickBot="1">
+      <c r="A8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3">
+        <v>912201124</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="7" t="str">
+        <f>CONCATENATE(D8, " ",E8, " ",A8, " ",F8,"   ",$G$5)</f>
+        <v>Buenas tardes estimado Coordinador CARLOS , por favor se le pide el apoyo para distribuir el siguiente enlace con los docentes nuevos, este enlace tiene la finalidad de solicitar los datos para generar sus anexos. Gracias anticipadas por su apoyo.   https://forms.gle/d1UqjP9NoRevg5JC6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30.75" thickBot="1">
+      <c r="A9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3">
+        <v>958393026</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="7" t="str">
+        <f>CONCATENATE(D9, " ",E9, " ",A9, " ",F9,"   ",$G$5)</f>
+        <v>Buenas tardes estimado Coordinador FREDDY , por favor se le pide el apoyo para distribuir el siguiente enlace con los docentes nuevos, este enlace tiene la finalidad de solicitar los datos para generar sus anexos. Gracias anticipadas por su apoyo.   https://forms.gle/d1UqjP9NoRevg5JC6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30.75" thickBot="1">
+      <c r="A10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3">
+        <v>949791577</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="7" t="str">
+        <f>CONCATENATE(D10, " ",E10, " ",A10, " ",F10,"   ",$G$5)</f>
+        <v>Buenas tardes estimada Coordinadora VICTORIA , por favor se le pide el apoyo para distribuir el siguiente enlace con los docentes nuevos, este enlace tiene la finalidad de solicitar los datos para generar sus anexos. Gracias anticipadas por su apoyo.   https://forms.gle/d1UqjP9NoRevg5JC6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30.75" thickBot="1">
+      <c r="A11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3">
+        <v>992758201</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="7" t="str">
+        <f>CONCATENATE(D11, " ",E11, " ",A11, " ",F11,"   ",$G$5)</f>
+        <v>Buenas tardes estimada Coordinadora GERALDINE , por favor se le pide el apoyo para distribuir el siguiente enlace con los docentes nuevos, este enlace tiene la finalidad de solicitar los datos para generar sus anexos. Gracias anticipadas por su apoyo.   https://forms.gle/d1UqjP9NoRevg5JC6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30.75" thickBot="1">
+      <c r="A12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="3">
+        <v>986019287</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="7" t="str">
+        <f>CONCATENATE(D12, " ",E12, " ",A12, " ",F12,"   ",$G$5)</f>
+        <v>Buenas tardes estimada Coordinadora ROCIO , por favor se le pide el apoyo para distribuir el siguiente enlace con los docentes nuevos, este enlace tiene la finalidad de solicitar los datos para generar sus anexos. Gracias anticipadas por su apoyo.   https://forms.gle/d1UqjP9NoRevg5JC6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="30.75" thickBot="1">
+      <c r="A13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="3">
+        <v>957873557</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="7" t="str">
+        <f>CONCATENATE(D13, " ",E13, " ",A13, " ",F13,"   ",$G$5)</f>
+        <v>Buenas tardes estimado Coordinador OSCAR , por favor se le pide el apoyo para distribuir el siguiente enlace con los docentes nuevos, este enlace tiene la finalidad de solicitar los datos para generar sus anexos. Gracias anticipadas por su apoyo.   https://forms.gle/d1UqjP9NoRevg5JC6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="30.75" thickBot="1">
+      <c r="A14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="3">
+        <v>958369904</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="7" t="str">
+        <f>CONCATENATE(D14, " ",E14, " ",A14, " ",F14,"   ",$G$5)</f>
+        <v>Buenas tardes estimado Coordinador WILSON , por favor se le pide el apoyo para distribuir el siguiente enlace con los docentes nuevos, este enlace tiene la finalidad de solicitar los datos para generar sus anexos. Gracias anticipadas por su apoyo.   https://forms.gle/d1UqjP9NoRevg5JC6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30.75" thickBot="1">
+      <c r="A15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="3">
+        <v>958575716</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="7" t="str">
+        <f>CONCATENATE(D15, " ",E15, " ",A15, " ",F15,"   ",$G$5)</f>
+        <v>Buenas tardes estimada Coordinadora ZANDRA , por favor se le pide el apoyo para distribuir el siguiente enlace con los docentes nuevos, este enlace tiene la finalidad de solicitar los datos para generar sus anexos. Gracias anticipadas por su apoyo.   https://forms.gle/d1UqjP9NoRevg5JC6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="30.75" thickBot="1">
+      <c r="A16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="3">
+        <v>988001900</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="7" t="str">
+        <f>CONCATENATE(D16, " ",E16, " ",A16, " ",F16,"   ",$G$5)</f>
+        <v>Buenas tardes estimada Coordinadora ANA , por favor se le pide el apoyo para distribuir el siguiente enlace con los docentes nuevos, este enlace tiene la finalidad de solicitar los datos para generar sus anexos. Gracias anticipadas por su apoyo.   https://forms.gle/d1UqjP9NoRevg5JC6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="30.75" thickBot="1">
+      <c r="A17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="3">
+        <v>988400313</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="7" t="str">
+        <f>CONCATENATE(D17, " ",E17, " ",A17, " ",F17,"   ",$G$5)</f>
+        <v>Buenas tardes estimado Coordinador PEDRO , por favor se le pide el apoyo para distribuir el siguiente enlace con los docentes nuevos, este enlace tiene la finalidad de solicitar los datos para generar sus anexos. Gracias anticipadas por su apoyo.   https://forms.gle/d1UqjP9NoRevg5JC6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="30.75" thickBot="1">
+      <c r="A18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="3">
+        <v>958265665</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="7" t="str">
+        <f>CONCATENATE(D18, " ",E18, " ",A18, " ",F18,"   ",$G$5)</f>
+        <v>Buenas tardes estimado Coordinador EDU , por favor se le pide el apoyo para distribuir el siguiente enlace con los docentes nuevos, este enlace tiene la finalidad de solicitar los datos para generar sus anexos. Gracias anticipadas por su apoyo.   https://forms.gle/d1UqjP9NoRevg5JC6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="30.75" thickBot="1">
+      <c r="A19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="3">
+        <v>986709089</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="7" t="str">
+        <f>CONCATENATE(D19, " ",E19, " ",A19, " ",F19,"   ",$G$5)</f>
+        <v>Buenas tardes estimada Coordinadora NADJA , por favor se le pide el apoyo para distribuir el siguiente enlace con los docentes nuevos, este enlace tiene la finalidad de solicitar los datos para generar sus anexos. Gracias anticipadas por su apoyo.   https://forms.gle/d1UqjP9NoRevg5JC6</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G3" r:id="rId1" xr:uid="{7B309F50-444F-407B-873B-80107AF495B7}"/>
+    <hyperlink ref="G4" r:id="rId2" xr:uid="{92D4CD76-E477-4094-8C9A-204424A9F6D0}"/>
+    <hyperlink ref="G5" r:id="rId3" xr:uid="{6736BE1D-4474-4874-B2D3-F8095673DE8D}"/>
+    <hyperlink ref="G6:G19" r:id="rId4" display="https://forms.gle/d1UqjP9NoRevg5JC6" xr:uid="{37F0AEDB-D0D0-445E-AD1B-631913BE09A6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34816110-C2C4-4DE7-8B2C-0FFE9B372238}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>